--- a/docs/画面項目定義書/virtual_machine_management/mo_snapshot_create.xlsx
+++ b/docs/画面項目定義書/virtual_machine_management/mo_snapshot_create.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Kamata-Cloud-Infrastructure\docs\画面項目定義書\virtual_machine_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCF46DB-9382-41C5-92F3-58EDA0F31992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F9FA03-81DD-428A-B50E-C216DFE54515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -60,10 +60,6 @@
     <t>ボタン</t>
   </si>
   <si>
-    <t>mo_snapshot_create</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>mo_snapshot_create.html</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -104,35 +100,9 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>仮想マシン管理ダッシュボードへ遷移</t>
-    <rPh sb="0" eb="2">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>スナップショット作成</t>
     <rPh sb="8" eb="10">
       <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>スナップショット作成が完了/仮想マシン管理ダッシュボードへ遷移</t>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -192,18 +162,24 @@
     <t>作成済み仮想マシンを、
 仮想マシンエンティティから取得し、
 一覧で表示</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイズ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>virtual_machine_dashboard.htmlへ遷移</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>スナップショット作成が完了/virtual_machine_dashboard.htmlへ遷移</t>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
     </rPh>
-    <rPh sb="4" eb="6">
-      <t>カソウ</t>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
     </rPh>
-    <rPh sb="30" eb="32">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒョウジ</t>
-    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>スナップショット作成モーダル</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -509,7 +485,7 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -595,9 +571,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -794,14 +767,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2979720</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>237240</xdr:rowOff>
     </xdr:to>
@@ -820,6 +793,87 @@
         <a:xfrm>
           <a:off x="6391080" y="6808320"/>
           <a:ext cx="6140880" cy="237240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" lIns="0" tIns="23040" rIns="27360" bIns="0" anchor="t" upright="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Verdana"/>
+            </a:rPr>
+            <a:t>All Rights Reserved,Copyright © 2025 KATAYANAGI INSTITUTE</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="0" u="none" strike="noStrike">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Noto Serif CJK JP"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9360</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2979720</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>237240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Text Box 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E4FE95-F14D-46A1-836A-675D1349F9CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5749760" y="5635625"/>
+          <a:ext cx="5535760" cy="167390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1054,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1068,7 +1122,7 @@
     <col min="7" max="7" width="38.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7" ht="13.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1133,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13">
+    <row r="2" spans="1:7" ht="13.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1088,7 +1142,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="14.5">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1097,7 +1151,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13">
+    <row r="4" spans="1:7" ht="13.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1106,11 +1160,11 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:7" ht="13.25">
+      <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1119,20 +1173,20 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:7" ht="13.25">
+      <c r="A6" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13">
+    <row r="7" spans="1:7" ht="13.25">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1141,7 +1195,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13">
+    <row r="8" spans="1:7" ht="13.25">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1164,272 +1218,150 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13">
+    <row r="9" spans="1:7" ht="13.25">
       <c r="A9" s="21">
         <v>1</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" s="29"/>
-    </row>
-    <row r="10" spans="1:7" ht="24">
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:7" ht="24.5">
       <c r="A10" s="24">
         <v>2</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.25">
       <c r="A11" s="21">
         <v>3</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="24">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="24.5">
       <c r="A12" s="24">
         <v>4</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
     </row>
-    <row r="13" spans="1:7" ht="24">
+    <row r="13" spans="1:7" ht="24.5">
       <c r="A13" s="21">
         <v>5</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="28"/>
       <c r="F13" s="29"/>
       <c r="G13" s="30"/>
     </row>
-    <row r="14" spans="1:7" ht="24">
+    <row r="14" spans="1:7" ht="24.5">
       <c r="A14" s="24">
         <v>6</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="33" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="1:7" ht="39">
+    <row r="15" spans="1:7" ht="36.75">
       <c r="A15" s="21">
         <v>7</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13">
-      <c r="A16" s="24">
-        <v>8</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
-    </row>
-    <row r="17" spans="1:7" ht="13">
-      <c r="A17" s="21">
-        <v>9</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-    </row>
-    <row r="18" spans="1:7" ht="13">
-      <c r="A18" s="24">
-        <v>10</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-    </row>
-    <row r="19" spans="1:7" ht="13">
-      <c r="A19" s="21">
-        <v>11</v>
-      </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-    </row>
-    <row r="20" spans="1:7" ht="13">
-      <c r="A20" s="24">
-        <v>12</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-    </row>
-    <row r="21" spans="1:7" ht="13">
-      <c r="A21" s="21">
-        <v>13</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-    </row>
-    <row r="22" spans="1:7" ht="13">
-      <c r="A22" s="24">
-        <v>14</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-    </row>
-    <row r="23" spans="1:7" ht="13">
-      <c r="A23" s="21">
-        <v>15</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-    </row>
-    <row r="24" spans="1:7" ht="13">
-      <c r="A24" s="24">
-        <v>16</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-    </row>
-    <row r="25" spans="1:7" ht="13">
-      <c r="A25" s="21">
-        <v>17</v>
-      </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
-    </row>
-    <row r="26" spans="1:7" ht="13">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-    </row>
-    <row r="27" spans="1:7" ht="13">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-    </row>
-    <row r="28" spans="1:7" ht="13">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-    </row>
-    <row r="29" spans="1:7" ht="13">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-    </row>
+        <v>27</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" ht="13.25"/>
+    <row r="18" ht="13.25"/>
+    <row r="19" ht="13.25"/>
+    <row r="20" ht="13.25"/>
+    <row r="21" ht="13.25"/>
+    <row r="22" ht="13.25"/>
+    <row r="23" ht="13.25"/>
+    <row r="24" ht="13.25"/>
+    <row r="25" ht="13.25"/>
+    <row r="26" ht="13.25"/>
+    <row r="27" ht="13.25"/>
+    <row r="28" ht="13.25"/>
+    <row r="29" ht="13.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A5:B5"/>
